--- a/VersionRecords/Version 5.1.8 20161215/模板_版本Bug和特性计划及评审表vX.X.X.xlsx
+++ b/VersionRecords/Version 5.1.8 20161215/模板_版本Bug和特性计划及评审表vX.X.X.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Workspace\mogo_doc\Mogo_Doc\VersionRecords\M 模板\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Workspace\mogo_doc\Mogo_Doc\VersionRecords\Version 5.1.8 20161215\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1316,7 +1316,7 @@
   <dimension ref="A1:V170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5909,7 +5909,7 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
